--- a/r4-core-69-replace-valuesets-with-reference-to-elga-terminology-server/StructureDefinition-at-core-valueset.xlsx
+++ b/r4-core-69-replace-valuesets-with-reference-to-elga-terminology-server/StructureDefinition-at-core-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-16T15:29:31+00:00</t>
+    <t>2023-12-04T14:25:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
